--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H2">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I2">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J2">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>131.967597012156</v>
+        <v>126.09615151742</v>
       </c>
       <c r="R2">
-        <v>527.8703880486239</v>
+        <v>504.38460606968</v>
       </c>
       <c r="S2">
-        <v>0.02877490474875646</v>
+        <v>0.1162641868123406</v>
       </c>
       <c r="T2">
-        <v>0.02039051153686614</v>
+        <v>0.08174610551711747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H3">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I3">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J3">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>33.599815131924</v>
+        <v>33.08277513096267</v>
       </c>
       <c r="R3">
-        <v>201.598890791544</v>
+        <v>198.496650785776</v>
       </c>
       <c r="S3">
-        <v>0.007326279343465511</v>
+        <v>0.0305032461483611</v>
       </c>
       <c r="T3">
-        <v>0.007787336818987739</v>
+        <v>0.03217054597754084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H4">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I4">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J4">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>100.883709304542</v>
+        <v>67.91120658966933</v>
       </c>
       <c r="R4">
-        <v>605.302255827252</v>
+        <v>407.4672395380161</v>
       </c>
       <c r="S4">
-        <v>0.02199721137357707</v>
+        <v>0.06261603637048352</v>
       </c>
       <c r="T4">
-        <v>0.02338154007153699</v>
+        <v>0.06603861330661165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H5">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I5">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J5">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>23.699646304623</v>
+        <v>33.63629638577601</v>
       </c>
       <c r="R5">
-        <v>94.79858521849199</v>
+        <v>134.545185543104</v>
       </c>
       <c r="S5">
-        <v>0.00516759477655661</v>
+        <v>0.03101360826330105</v>
       </c>
       <c r="T5">
-        <v>0.00366186793072809</v>
+        <v>0.02180586957229083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H6">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I6">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J6">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>102.051508979556</v>
+        <v>23.14367384351867</v>
       </c>
       <c r="R6">
-        <v>612.3090538773361</v>
+        <v>138.862043061112</v>
       </c>
       <c r="S6">
-        <v>0.02225184451970506</v>
+        <v>0.02133911611802846</v>
       </c>
       <c r="T6">
-        <v>0.0236521977930373</v>
+        <v>0.02250550688461731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H7">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I7">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J7">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>87.36189475703401</v>
+        <v>115.3007861467093</v>
       </c>
       <c r="R7">
-        <v>524.1713685422039</v>
+        <v>691.8047168802561</v>
       </c>
       <c r="S7">
-        <v>0.0190488442407039</v>
+        <v>0.1063105572918204</v>
       </c>
       <c r="T7">
-        <v>0.02024762627255045</v>
+        <v>0.1121214658472752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J8">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>66.42399697703665</v>
+        <v>64.46062073939166</v>
       </c>
       <c r="R8">
-        <v>398.5439818622199</v>
+        <v>386.7637244363499</v>
       </c>
       <c r="S8">
-        <v>0.01448343555024236</v>
+        <v>0.05943449947914325</v>
       </c>
       <c r="T8">
-        <v>0.0153949072425741</v>
+        <v>0.06268317440203448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J9">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>16.91198498178555</v>
@@ -1013,10 +1013,10 @@
         <v>152.20786483607</v>
       </c>
       <c r="S9">
-        <v>0.00368757761739386</v>
+        <v>0.01559332428173415</v>
       </c>
       <c r="T9">
-        <v>0.005879466426246596</v>
+        <v>0.02466847724870024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J10">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>50.77836797513167</v>
+        <v>34.71635318962444</v>
       </c>
       <c r="R10">
-        <v>457.005311776185</v>
+        <v>312.44717870662</v>
       </c>
       <c r="S10">
-        <v>0.01107198081091928</v>
+        <v>0.03200945091590751</v>
       </c>
       <c r="T10">
-        <v>0.01765314420577621</v>
+        <v>0.05063861928321525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J11">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>11.9288770132725</v>
+        <v>17.19494622404667</v>
       </c>
       <c r="R11">
-        <v>71.57326207963499</v>
+        <v>103.16967734428</v>
       </c>
       <c r="S11">
-        <v>0.002601034705397633</v>
+        <v>0.01585422247993454</v>
       </c>
       <c r="T11">
-        <v>0.002764723044156645</v>
+        <v>0.01672081032779849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J12">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>51.36616319031445</v>
+        <v>11.83109527285722</v>
       </c>
       <c r="R12">
-        <v>462.29546871283</v>
+        <v>106.479857455715</v>
       </c>
       <c r="S12">
-        <v>0.01120014675249584</v>
+        <v>0.01090860152705013</v>
       </c>
       <c r="T12">
-        <v>0.01785749172837025</v>
+        <v>0.01725729445006103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J13">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>43.97235658322167</v>
+        <v>58.94200701065778</v>
       </c>
       <c r="R13">
-        <v>395.7512092489949</v>
+        <v>530.47806309592</v>
       </c>
       <c r="S13">
-        <v>0.00958796250676601</v>
+        <v>0.05434618290657899</v>
       </c>
       <c r="T13">
-        <v>0.01528702837026168</v>
+        <v>0.08597509757140455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J14">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>991.4045996277708</v>
+        <v>0.02761774623833333</v>
       </c>
       <c r="R14">
-        <v>3965.618398511083</v>
+        <v>0.16570647743</v>
       </c>
       <c r="S14">
-        <v>0.2161710417379228</v>
+        <v>2.546433629693935E-05</v>
       </c>
       <c r="T14">
-        <v>0.1531834130809407</v>
+        <v>2.685621056997779E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J15">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>252.4181088586757</v>
+        <v>0.007245833258444445</v>
       </c>
       <c r="R15">
-        <v>1514.508653152054</v>
+        <v>0.06521249932600001</v>
       </c>
       <c r="S15">
-        <v>0.0550385640393269</v>
+        <v>6.680861401662006E-06</v>
       </c>
       <c r="T15">
-        <v>0.05850225143134178</v>
+        <v>1.056905343023434E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H16">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I16">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J16">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>757.8873579309095</v>
+        <v>0.01487400247955556</v>
       </c>
       <c r="R16">
-        <v>4547.324147585457</v>
+        <v>0.133866022316</v>
       </c>
       <c r="S16">
-        <v>0.1652537215839415</v>
+        <v>1.371424727971465E-05</v>
       </c>
       <c r="T16">
-        <v>0.1756534702315415</v>
+        <v>2.169579692503299E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H17">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I17">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J17">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>178.0432385518867</v>
+        <v>0.007367066217333334</v>
       </c>
       <c r="R17">
-        <v>712.1729542075469</v>
+        <v>0.044202397304</v>
       </c>
       <c r="S17">
-        <v>0.03882147850292941</v>
+        <v>6.79264158853094E-06</v>
       </c>
       <c r="T17">
-        <v>0.02750972808437853</v>
+        <v>7.163925684169575E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H18">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I18">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J18">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>766.6604355307543</v>
+        <v>0.005068958120777779</v>
       </c>
       <c r="R18">
-        <v>4599.962613184526</v>
+        <v>0.045620623087</v>
       </c>
       <c r="S18">
-        <v>0.1671666492874423</v>
+        <v>4.673721495906417E-06</v>
       </c>
       <c r="T18">
-        <v>0.1776867823179582</v>
+        <v>7.393778921379986E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H19">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I19">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J19">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>656.3049282949565</v>
+        <v>0.02525333100622222</v>
       </c>
       <c r="R19">
-        <v>3937.829569769739</v>
+        <v>0.227279979056</v>
       </c>
       <c r="S19">
-        <v>0.1431041575765545</v>
+        <v>2.328427916640803E-05</v>
       </c>
       <c r="T19">
-        <v>0.1521099896689152</v>
+        <v>3.683548809035883E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H20">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I20">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J20">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>72.24634489252601</v>
+        <v>152.0246703223725</v>
       </c>
       <c r="R20">
-        <v>433.478069355156</v>
+        <v>608.0986812894898</v>
       </c>
       <c r="S20">
-        <v>0.01575297072763059</v>
+        <v>0.1401710080581089</v>
       </c>
       <c r="T20">
-        <v>0.01674433681881506</v>
+        <v>0.09855514694007791</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H21">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I21">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J21">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>18.39439292148734</v>
+        <v>39.885420150503</v>
       </c>
       <c r="R21">
-        <v>165.549536293386</v>
+        <v>239.312520903018</v>
       </c>
       <c r="S21">
-        <v>0.004010809594253982</v>
+        <v>0.03677547556894427</v>
       </c>
       <c r="T21">
-        <v>0.006394826847915904</v>
+        <v>0.03878561389441554</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H22">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I22">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J22">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>55.22930947800701</v>
+        <v>81.87544717859799</v>
       </c>
       <c r="R22">
-        <v>497.0637853020631</v>
+        <v>491.252683071588</v>
       </c>
       <c r="S22">
-        <v>0.01204248736470405</v>
+        <v>0.07549145768181022</v>
       </c>
       <c r="T22">
-        <v>0.01920051792681059</v>
+        <v>0.07961780193662242</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H23">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I23">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J23">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>12.9744941903955</v>
+        <v>40.552759203018</v>
       </c>
       <c r="R23">
-        <v>77.84696514237301</v>
+        <v>162.211036812072</v>
       </c>
       <c r="S23">
-        <v>0.002829026540943495</v>
+        <v>0.03739078088425404</v>
       </c>
       <c r="T23">
-        <v>0.003007062863884984</v>
+        <v>0.02628970109656519</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H24">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I24">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J24">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>55.86862746209268</v>
+        <v>27.9025913461235</v>
       </c>
       <c r="R24">
-        <v>502.8176471588341</v>
+        <v>167.415548076741</v>
       </c>
       <c r="S24">
-        <v>0.01218188760016138</v>
+        <v>0.02572697147197182</v>
       </c>
       <c r="T24">
-        <v>0.01942277738524647</v>
+        <v>0.02713320131819543</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H25">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I25">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J25">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>47.82672202858901</v>
+        <v>139.009508148568</v>
       </c>
       <c r="R25">
-        <v>430.440498257301</v>
+        <v>834.0570488914079</v>
       </c>
       <c r="S25">
-        <v>0.0104283884982094</v>
+        <v>0.1281706636529978</v>
       </c>
       <c r="T25">
-        <v>0.0166270019011588</v>
+        <v>0.135176440171835</v>
       </c>
     </row>
   </sheetData>
